--- a/Analyzed/try8/data_2009.xlsx
+++ b/Analyzed/try8/data_2009.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>49.54000000000001</v>
       </c>
       <c r="J2">
-        <v>505.6</v>
+        <v>665.9549800000001</v>
       </c>
       <c r="K2">
         <v>1735.771</v>
       </c>
       <c r="L2">
-        <v>487.2</v>
+        <v>660.7132</v>
       </c>
       <c r="M2">
         <v>60.26543149571023</v>
@@ -558,48 +583,63 @@
         <v>-130.27</v>
       </c>
       <c r="P2">
-        <v>491.6440377392423</v>
+        <v>646.889809408288</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>4</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
         <v>5</v>
       </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-      <c r="V2">
-        <v>5</v>
-      </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
       <c r="Z2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>1</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>63.67</v>
       </c>
       <c r="J3">
-        <v>551</v>
+        <v>759.8117900000001</v>
       </c>
       <c r="K3">
         <v>2735.015</v>
       </c>
       <c r="L3">
-        <v>575.61</v>
+        <v>823.2553</v>
       </c>
       <c r="M3">
         <v>70.90677959012908</v>
@@ -652,7 +692,7 @@
         <v>-112.78</v>
       </c>
       <c r="P3">
-        <v>511.8598280650982</v>
+        <v>670.1059655053483</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -664,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -676,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -694,6 +734,21 @@
         <v>1</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>1</v>
       </c>
     </row>
@@ -728,13 +783,13 @@
         <v>45.5</v>
       </c>
       <c r="J4">
-        <v>500.8</v>
+        <v>624.6749000000001</v>
       </c>
       <c r="K4">
         <v>1288.522</v>
       </c>
       <c r="L4">
-        <v>518.28</v>
+        <v>700.95025</v>
       </c>
       <c r="M4">
         <v>61.39269853968487</v>
@@ -746,40 +801,40 @@
         <v>-123.42</v>
       </c>
       <c r="P4">
-        <v>377.141344763388</v>
+        <v>490.3685465638067</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -788,6 +843,21 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>0</v>
       </c>
     </row>
@@ -822,13 +892,13 @@
         <v>41.9</v>
       </c>
       <c r="J5">
-        <v>468.2</v>
+        <v>573.79997</v>
       </c>
       <c r="K5">
         <v>1238.138</v>
       </c>
       <c r="L5">
-        <v>471.24</v>
+        <v>607.03685</v>
       </c>
       <c r="M5">
         <v>67.15155325280395</v>
@@ -840,37 +910,37 @@
         <v>-152.21</v>
       </c>
       <c r="P5">
-        <v>389.4147217280446</v>
+        <v>510.2433570649856</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -879,10 +949,25 @@
         <v>3</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -916,13 +1001,13 @@
         <v>42.89</v>
       </c>
       <c r="J6">
-        <v>513.8000000000001</v>
+        <v>634.6532900000001</v>
       </c>
       <c r="K6">
         <v>1661.7</v>
       </c>
       <c r="L6">
-        <v>499.17</v>
+        <v>609.8253</v>
       </c>
       <c r="M6">
         <v>63.01248371532319</v>
@@ -934,31 +1019,31 @@
         <v>-135.65</v>
       </c>
       <c r="P6">
-        <v>335.6340672148336</v>
+        <v>438.5175909831425</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -970,13 +1055,28 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>35.41</v>
       </c>
       <c r="J7">
-        <v>517.8000000000001</v>
+        <v>768.6154300000001</v>
       </c>
       <c r="K7">
         <v>1123.522</v>
       </c>
       <c r="L7">
-        <v>553.77</v>
+        <v>819.5257</v>
       </c>
       <c r="M7">
         <v>62.49581823795481</v>
@@ -1028,49 +1128,64 @@
         <v>-173.54</v>
       </c>
       <c r="P7">
-        <v>299.6066362320024</v>
+        <v>388.9707463259764</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
       <c r="U7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>2</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>1</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>3</v>
+      </c>
+      <c r="AI7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>32.35</v>
       </c>
       <c r="J8">
-        <v>491.6</v>
+        <v>641.6954400000001</v>
       </c>
       <c r="K8">
         <v>1071.807</v>
       </c>
       <c r="L8">
-        <v>511.56</v>
+        <v>740.1716</v>
       </c>
       <c r="M8">
         <v>71.93879289244249</v>
@@ -1122,48 +1237,63 @@
         <v>-167.96</v>
       </c>
       <c r="P8">
-        <v>286.094598127171</v>
+        <v>371.8029586860412</v>
       </c>
       <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
       <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
         <v>6</v>
       </c>
-      <c r="V8">
-        <v>4</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
       <c r="Y8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
         <v>1</v>
       </c>
     </row>
@@ -1198,13 +1328,13 @@
         <v>31.9</v>
       </c>
       <c r="J9">
-        <v>493</v>
+        <v>591.03895</v>
       </c>
       <c r="K9">
         <v>1325.882</v>
       </c>
       <c r="L9">
-        <v>446.25</v>
+        <v>544.3543</v>
       </c>
       <c r="M9">
         <v>64.86325909782767</v>
@@ -1216,49 +1346,64 @@
         <v>-166.08</v>
       </c>
       <c r="P9">
-        <v>370.60346992937</v>
+        <v>484.4315013010479</v>
       </c>
       <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
       <c r="S9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
